--- a/casetest.xlsx
+++ b/casetest.xlsx
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_1.TestCase_1</x:t>
+    <x:t>JiraTestCase_13402</x:t>
   </x:si>
   <x:si>
     <x:t>New Case</x:t>
